--- a/biology/Médecine/Ventilation_assistée_proportionnelle/Ventilation_assistée_proportionnelle.xlsx
+++ b/biology/Médecine/Ventilation_assistée_proportionnelle/Ventilation_assistée_proportionnelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ventilation_assist%C3%A9e_proportionnelle</t>
+          <t>Ventilation_assistée_proportionnelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La ventilation assistée proportionnelle est un mode de ventilation spontanée auto régulé basé sur la mesure par le respirateur du travail respiratoire du patient. Ce mode de ventilation est disponible sur les respirateurs Puritan Bennet 840 (ventilation invasive et non-invasive) et Respitronics Bipap Vision (ventilation non-invasive).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ventilation_assist%C3%A9e_proportionnelle</t>
+          <t>Ventilation_assistée_proportionnelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La mesure par le respirateur du travail respiratoire est faite à partir des caractéristiques mécaniques du poumon (élastance et résistance) et de la mesure du débit généré par le patient. Ce calcul est fait plusieurs fois par seconde afin que l'aide inspiratoire évolue au cours d'une même inspiration de façon proportionnelle à l'effort du patient. L'effort respiratoire mesuré est amplifié par le respirateur selon de pourcentage du travail respiratoire total qu'il est programmé pour fournir.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ventilation_assist%C3%A9e_proportionnelle</t>
+          <t>Ventilation_assistée_proportionnelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
